--- a/Contagio - Recuperados Covid.xlsx
+++ b/Contagio - Recuperados Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Seguros Suramericana, S.A\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F2F2C3-0D2C-4A74-9005-86E23463B0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FE0450-C205-4F72-B4E1-096736CDE92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2AAF27C9-1C34-45FE-A641-9508EE227A6A}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,8 +574,8 @@
         <v>3.3888673865743388E-3</v>
       </c>
       <c r="G2" s="2">
-        <f>+D2/E2</f>
-        <v>2.3894244067194622E-3</v>
+        <f>+D2/C2</f>
+        <v>0.70508052813917554</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -596,8 +596,8 @@
         <v>1.9119644160602061E-2</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G8" si="0">+D3/E3</f>
-        <v>1.0789604812709351E-2</v>
+        <f t="shared" ref="G3:G22" si="0">+D3/C3</f>
+        <v>0.56432037762200671</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5259453036654694E-2</v>
+        <v>0.80264201772054922</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>9.5953862519061999E-3</v>
+        <v>0.76293350178196817</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -672,7 +672,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>2.1954038215012367E-3</v>
+        <v>0.77162250668933907</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>3.3311752683351263E-3</v>
+        <v>0.69750556821755438</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.0339928022137101E-2</v>
+        <v>0.93495333744696896</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
@@ -746,8 +746,8 @@
         <v>4.5230055367396285E-3</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G12" si="1">+D9/E9</f>
-        <v>3.9034868504067232E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.86302942118892911</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -768,7 +768,7 @@
         <v>5.0097827416913212E-3</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -791,7 +791,7 @@
         <v>8.380376453762238E-3</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -816,8 +816,8 @@
         <v>5.5059725669360854E-4</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7089399427334238E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.85524217301972727</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -841,8 +841,8 @@
         <v>8.7133509790221445E-3</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" ref="G13" si="2">+D13/E13</f>
-        <v>3.4994125181168831E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.40161500742273609</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
@@ -866,8 +866,8 @@
         <v>4.0645826732351874E-4</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" ref="G14" si="3">+D14/E14</f>
-        <v>3.0779823592587543E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.75726897610593991</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -891,8 +891,8 @@
         <v>9.1189481893895075E-3</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" ref="G15" si="4">+D15/E15</f>
-        <v>8.4212456232449114E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.92348870158551644</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
@@ -916,8 +916,8 @@
         <v>3.4521674557695427E-3</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16" si="5">+D16/E16</f>
-        <v>3.0540490276402496E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.88467580636509235</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -941,8 +941,8 @@
         <v>7.0319303567740554E-4</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" ref="G17" si="6">+D17/E17</f>
-        <v>4.3881776198120874E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.62403598971722363</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
@@ -962,12 +962,12 @@
         <v>145945695</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F22" si="7">+C18/E18</f>
+        <f t="shared" ref="F18:F22" si="1">+C18/E18</f>
         <v>6.9203480102650507E-3</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" ref="G18:G22" si="8">+D18/E18</f>
-        <v>5.6660458535621756E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.81875157797810882</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -987,12 +987,12 @@
         <v>46758029</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1.0447681616348714E-2</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="8"/>
-        <v>3.2160465959760621E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.30782394736680496</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
@@ -1012,12 +1012,12 @@
         <v>65299323</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>4.5970001863572156E-3</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="8"/>
-        <v>1.3354809206827458E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.29051139146048549</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -1037,12 +1037,12 @@
         <v>60445793</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>4.5149875029350675E-3</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="8"/>
-        <v>3.4492061341638782E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.76394588731898927</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -1062,12 +1062,12 @@
         <v>83831702</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>2.9680179939565107E-3</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="8"/>
-        <v>2.6791773832767945E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.90268232494956069</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>

--- a/Contagio - Recuperados Covid.xlsx
+++ b/Contagio - Recuperados Covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Seguros Suramericana, S.A\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Especializacion en Analitica\Analitica Descriptiva\covid-19-team-ap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FE0450-C205-4F72-B4E1-096736CDE92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67C026-3227-4C3C-A316-1072C4D22D28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2AAF27C9-1C34-45FE-A641-9508EE227A6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AAF27C9-1C34-45FE-A641-9508EE227A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>EEUU</t>
   </si>
@@ -132,6 +130,12 @@
   </si>
   <si>
     <t>https://www.es.kayak.com/restricciones-de-viaje</t>
+  </si>
+  <si>
+    <t>Nuevos Casos</t>
+  </si>
+  <si>
+    <t>Recuperados Dia Anterior</t>
   </si>
 </sst>
 </file>
@@ -520,410 +524,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F78612F-E19C-4EC4-93B6-6D371AC03871}">
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>26465221</v>
+        <v>27052131</v>
       </c>
       <c r="D2" s="1">
-        <v>18660112</v>
+        <v>269354</v>
       </c>
       <c r="E2" s="1">
+        <v>19155936</v>
+      </c>
+      <c r="F2" s="1">
+        <v>18936433</v>
+      </c>
+      <c r="G2" s="1">
         <v>7809459026</v>
       </c>
-      <c r="F2" s="2">
-        <f>+C2/E2</f>
-        <v>3.3888673865743388E-3</v>
-      </c>
-      <c r="G2" s="2">
-        <f>+D2/C2</f>
-        <v>0.70508052813917554</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <f>D2/C2</f>
+        <v>9.9568496101101987E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <f>+(E2-F2)/F2</f>
+        <v>1.1591570598327574E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>6335224</v>
+        <v>6429140</v>
       </c>
       <c r="D3" s="1">
-        <v>3575096</v>
+        <v>42092</v>
       </c>
       <c r="E3" s="1">
+        <v>3707000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3676569</v>
+      </c>
+      <c r="G3" s="1">
         <v>331346334</v>
       </c>
-      <c r="F3" s="2">
-        <f>+C3/E3</f>
-        <v>1.9119644160602061E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G22" si="0">+D3/C3</f>
-        <v>0.56432037762200671</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H22" si="0">D3/C3</f>
+        <v>6.5470653928830294E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I22" si="1">+(E3-F3)/F3</f>
+        <v>8.2770104409845158E-3</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>4046150</v>
+        <v>4123000</v>
       </c>
       <c r="D4" s="1">
-        <v>3247610</v>
+        <v>31199</v>
       </c>
       <c r="E4" s="1">
+        <v>3296702</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3278243</v>
+      </c>
+      <c r="G4" s="1">
         <v>212826108</v>
       </c>
-      <c r="F4" s="2">
-        <f>+C4/E4</f>
-        <v>1.9011530295897718E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.80264201772054922</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.567062818336163E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6307601358410592E-3</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>641145</v>
+        <v>658456</v>
       </c>
       <c r="D5" s="1">
-        <v>489151</v>
+        <v>8394</v>
       </c>
       <c r="E5" s="1">
+        <v>507770</v>
+      </c>
+      <c r="F5" s="1">
+        <v>498221</v>
+      </c>
+      <c r="G5" s="1">
         <v>50977729</v>
       </c>
-      <c r="F5" s="2">
-        <f>+C5/E5</f>
-        <v>1.2576962775254268E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.76293350178196817</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2748004422467105E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9166193315817679E-2</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>3933124</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3034887</v>
+      <c r="C6" s="3">
+        <v>4110839</v>
+      </c>
+      <c r="D6" s="3">
+        <v>90600</v>
       </c>
       <c r="E6" s="3">
+        <v>3177673</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3104512</v>
+      </c>
+      <c r="G6" s="3">
         <v>1382382125</v>
       </c>
-      <c r="F6" s="2">
-        <f>+C6/E6</f>
-        <v>2.8451785717353659E-3</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.77162250668933907</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2039296601010158E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3566022614826421E-2</v>
+      </c>
+      <c r="J6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>616894</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="3">
+        <v>623090</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6196</v>
+      </c>
+      <c r="E7" s="3">
+        <v>434667</v>
+      </c>
+      <c r="F7" s="3">
         <v>430287</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G7" s="3">
         <v>129169727</v>
       </c>
-      <c r="F7" s="2">
-        <f>+C7/E7</f>
-        <v>4.7758403948627995E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.69750556821755438</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9439888298640654E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.017925245243291E-2</v>
+      </c>
+      <c r="J7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <v>416501</v>
-      </c>
-      <c r="D8" s="1">
-        <v>389409</v>
+      <c r="C8" s="3">
+        <v>420434</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1969</v>
       </c>
       <c r="E8" s="3">
+        <v>392967</v>
+      </c>
+      <c r="F8" s="3">
+        <v>391248</v>
+      </c>
+      <c r="G8" s="3">
         <v>19145053</v>
       </c>
-      <c r="F8" s="2">
-        <f>+C8/E8</f>
-        <v>2.1755019429823465E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.93495333744696896</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.683255873692423E-3</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3936326831063672E-3</v>
+      </c>
+      <c r="J8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>380746</v>
+        <v>384666</v>
       </c>
       <c r="D9" s="3">
-        <v>328595</v>
+        <v>1894</v>
       </c>
       <c r="E9" s="3">
+        <v>332131</v>
+      </c>
+      <c r="F9" s="3">
+        <v>330308</v>
+      </c>
+      <c r="G9" s="3">
         <v>84179866</v>
       </c>
-      <c r="F9" s="2">
-        <f>+C9/E9</f>
-        <v>4.5230055367396285E-3</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.86302942118892911</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9237520342322949E-3</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5190912723881956E-3</v>
+      </c>
+      <c r="J9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>340411</v>
-      </c>
-      <c r="E10" s="3">
+        <v>344164</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1813</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>67949254</v>
       </c>
-      <c r="F10" s="2">
-        <f>+C10/E10</f>
-        <v>5.0097827416913212E-3</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.267837426343255E-3</v>
+      </c>
+      <c r="I10" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>84729</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+        <v>84985</v>
+      </c>
+      <c r="D11" s="1">
+        <v>256</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>10110405</v>
       </c>
-      <c r="F11" s="2">
-        <f>+C11/E11</f>
-        <v>8.380376453762238E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0122962875801613E-3</v>
+      </c>
+      <c r="I11" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>69599</v>
+        <v>70876</v>
       </c>
       <c r="D12" s="1">
-        <v>59524</v>
+        <v>608</v>
       </c>
       <c r="E12" s="1">
+        <v>61445</v>
+      </c>
+      <c r="F12" s="1">
+        <v>60417</v>
+      </c>
+      <c r="G12" s="1">
         <v>126406369</v>
       </c>
-      <c r="F12" s="2">
-        <f>+C12/E12</f>
-        <v>5.5059725669360854E-4</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.85524217301972727</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5783622100570004E-3</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7015078537497723E-2</v>
+      </c>
+      <c r="J12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3">
-        <v>44458</v>
+        <v>46920</v>
       </c>
       <c r="D13" s="3">
-        <v>17855</v>
+        <v>1240</v>
       </c>
       <c r="E13" s="3">
+        <v>18211</v>
+      </c>
+      <c r="F13" s="3">
+        <v>18053</v>
+      </c>
+      <c r="G13" s="3">
         <v>5102285</v>
       </c>
-      <c r="F13" s="2">
-        <f>+C13/E13</f>
-        <v>8.7133509790221445E-3</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.40161500742273609</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6427962489343565E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.7520079765135983E-3</v>
+      </c>
+      <c r="J13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>20842</v>
+        <v>21010</v>
       </c>
       <c r="D14" s="3">
+        <v>168</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16009</v>
+      </c>
+      <c r="F14" s="3">
         <v>15783</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>51277097</v>
       </c>
-      <c r="F14" s="2">
-        <f>+C14/E14</f>
-        <v>4.0645826732351874E-4</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.75726897610593991</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9961922893860074E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4319204207058227E-2</v>
+      </c>
+      <c r="J14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>318319</v>
+        <v>319932</v>
       </c>
       <c r="D15" s="1">
-        <v>293964</v>
+        <v>791</v>
       </c>
       <c r="E15" s="1">
+        <v>295842</v>
+      </c>
+      <c r="F15" s="1">
+        <v>295063</v>
+      </c>
+      <c r="G15" s="1">
         <v>34907425</v>
       </c>
-      <c r="F15" s="2">
-        <f>+C15/E15</f>
-        <v>9.1189481893895075E-3</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.92348870158551644</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4724003850818297E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.640114145114772E-3</v>
+      </c>
+      <c r="J15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="3">
-        <v>130493</v>
+        <v>131495</v>
       </c>
       <c r="D16" s="3">
-        <v>115444</v>
+        <v>371</v>
       </c>
       <c r="E16" s="3">
+        <v>116136</v>
+      </c>
+      <c r="F16" s="3">
+        <v>115926</v>
+      </c>
+      <c r="G16" s="3">
         <v>37800310</v>
       </c>
-      <c r="F16" s="2">
-        <f>+C16/E16</f>
-        <v>3.4521674557695427E-3</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.88467580636509235</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8214000532339632E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.811500439935821E-3</v>
+      </c>
+      <c r="J16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
@@ -931,160 +1031,192 @@
         <v>4668</v>
       </c>
       <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>2913</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
+        <v>2913</v>
+      </c>
+      <c r="G17" s="1">
         <v>6638291</v>
       </c>
-      <c r="F17" s="2">
-        <f>+C17/E17</f>
-        <v>7.0319303567740554E-4</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.62403598971722363</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="3">
-        <v>1009995</v>
+        <v>1020310</v>
       </c>
       <c r="D18" s="3">
-        <v>826935</v>
+        <v>5205</v>
       </c>
       <c r="E18" s="3">
+        <v>838126</v>
+      </c>
+      <c r="F18" s="3">
+        <v>832747</v>
+      </c>
+      <c r="G18" s="3">
         <v>145945695</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" ref="F18:F22" si="1">+C18/E18</f>
-        <v>6.9203480102650507E-3</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.81875157797810882</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1013907537905143E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>6.45934479499776E-3</v>
+      </c>
+      <c r="J18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="3">
-        <v>488513</v>
-      </c>
-      <c r="D19" s="3">
+        <v>517133</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>150376</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>46758029</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0447681616348714E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.30782394736680496</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1">
-        <v>300181</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="3">
+        <v>317706</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8550</v>
+      </c>
+      <c r="E20" s="3">
+        <v>87447</v>
+      </c>
+      <c r="F20" s="3">
         <v>87206</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>65299323</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5970001863572156E-3</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.29051139146048549</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6911673056221792E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7635713139004198E-3</v>
+      </c>
+      <c r="J20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="3">
-        <v>272912</v>
+        <v>276337</v>
       </c>
       <c r="D21" s="3">
-        <v>208490</v>
+        <v>1694</v>
       </c>
       <c r="E21" s="3">
+        <v>209610</v>
+      </c>
+      <c r="F21" s="3">
+        <v>209027</v>
+      </c>
+      <c r="G21" s="3">
         <v>60445793</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5149875029350675E-3</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.76394588731898927</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1301961011373789E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7891133681294763E-3</v>
+      </c>
+      <c r="J21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1">
-        <v>248814</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="3">
+        <v>251056</v>
+      </c>
+      <c r="D22" s="3">
+        <v>775</v>
+      </c>
+      <c r="E22" s="3">
+        <v>226208</v>
+      </c>
+      <c r="F22" s="3">
         <v>224600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>83831702</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>2.9680179939565107E-3</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.90268232494956069</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0869606780957238E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1593944790739094E-3</v>
+      </c>
+      <c r="J22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F22">
+  <conditionalFormatting sqref="H2:H22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1096,7 +1228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G22">
+  <conditionalFormatting sqref="I2:I22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1109,7 +1241,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" location="countries" display="https://www.worldometers.info/coronavirus/ - countries" xr:uid="{BF30D001-F10D-4247-867E-B4BAA72066F3}"/>
+    <hyperlink ref="B26" r:id="rId1" location="countries" xr:uid="{BF30D001-F10D-4247-867E-B4BAA72066F3}"/>
     <hyperlink ref="B29" r:id="rId2" xr:uid="{1FFA74A8-2BFE-42C5-87A2-2C19B3352951}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
